--- a/arquivo_original_3.xlsx
+++ b/arquivo_original_3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="44">
   <si>
     <t>NOME</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Diori Vasconcelos</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -484,11 +487,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1010,6 +1019,26 @@
       </c>
       <c r="K15" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
